--- a/Data/Forecasts/IDA1/2023-12-02_exo[].xlsx
+++ b/Data/Forecasts/IDA1/2023-12-02_exo[].xlsx
@@ -454,7 +454,7 @@
         <v>45262</v>
       </c>
       <c r="B2" t="n">
-        <v>137.6747283935547</v>
+        <v>136.9958801269531</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>45262.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>140.2944488525391</v>
+        <v>138.0481414794922</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>45262.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>139.0405578613281</v>
+        <v>140.4620361328125</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>45262.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>133.7721099853516</v>
+        <v>136.2327423095703</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>45262.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>132.3533172607422</v>
+        <v>137.4442443847656</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>45262.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>134.0119323730469</v>
+        <v>137.7482147216797</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>45262.125</v>
       </c>
       <c r="B8" t="n">
-        <v>135.1159820556641</v>
+        <v>140.3592529296875</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45262.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>132.887939453125</v>
+        <v>138.2991180419922</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>45262.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>131.9787292480469</v>
+        <v>138.9996643066406</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45262.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>130.1563415527344</v>
+        <v>136.6790771484375</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45262.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>137.253662109375</v>
+        <v>137.0670013427734</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45262.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>138.2443084716797</v>
+        <v>141.1650543212891</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45262.25</v>
       </c>
       <c r="B14" t="n">
-        <v>142.7332000732422</v>
+        <v>142.7672882080078</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45262.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>150.8880615234375</v>
+        <v>151.2744903564453</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>45262.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>153.9878692626953</v>
+        <v>154.7579650878906</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>45262.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>188.3982849121094</v>
+        <v>190.2874145507812</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>45262.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>172.3468933105469</v>
+        <v>178.5078277587891</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>45262.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>175.0326385498047</v>
+        <v>185.5553436279297</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>45262.375</v>
       </c>
       <c r="B20" t="n">
-        <v>164.1597137451172</v>
+        <v>175.2987823486328</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>45262.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>165.9980621337891</v>
+        <v>177.3972015380859</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>45262.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>165.9013366699219</v>
+        <v>178.0746307373047</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>45262.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>160.5148162841797</v>
+        <v>174.8529968261719</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>45262.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>160.3081359863281</v>
+        <v>173.6699981689453</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>45262.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>162.1110687255859</v>
+        <v>175.040283203125</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>45262.5</v>
       </c>
       <c r="B26" t="n">
-        <v>165.6934204101562</v>
+        <v>176.373046875</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>163.3251495361328</v>
+        <v>175.2969360351562</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>45262.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>171.6348266601562</v>
+        <v>180.6457824707031</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>45262.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>160.8607788085938</v>
+        <v>169.285888671875</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +678,7 @@
         <v>45262.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>165.1140594482422</v>
+        <v>173.5343933105469</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>45262.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>168.6459350585938</v>
+        <v>175.0888061523438</v>
       </c>
     </row>
     <row r="32">
@@ -694,7 +694,7 @@
         <v>45262.625</v>
       </c>
       <c r="B32" t="n">
-        <v>172.7815246582031</v>
+        <v>181.9594421386719</v>
       </c>
     </row>
     <row r="33">
@@ -702,7 +702,7 @@
         <v>45262.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>194.4487152099609</v>
+        <v>201.9370422363281</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +710,7 @@
         <v>45262.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>187.2679748535156</v>
+        <v>193.9628601074219</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +718,7 @@
         <v>45262.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>216.9813385009766</v>
+        <v>233.6648254394531</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +726,7 @@
         <v>45262.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>223.8249816894531</v>
+        <v>244.1379089355469</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>45262.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>226.3697357177734</v>
+        <v>243.9602966308594</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>45262.75</v>
       </c>
       <c r="B38" t="n">
-        <v>211.0123901367188</v>
+        <v>229.3142547607422</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>45262.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>205.1487274169922</v>
+        <v>216.3759918212891</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>45262.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>172.5253448486328</v>
+        <v>189.3650970458984</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>45262.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>170.8875274658203</v>
+        <v>178.8901977539062</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>45262.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>162.1897430419922</v>
+        <v>171.4137573242188</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>45262.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>145.5573425292969</v>
+        <v>151.23828125</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>45262.875</v>
       </c>
       <c r="B44" t="n">
-        <v>153.0610961914062</v>
+        <v>155.5109100341797</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>45262.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>133.2735137939453</v>
+        <v>134.5513763427734</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>45262.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>138.6450958251953</v>
+        <v>141.1094818115234</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>45262.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>122.2219924926758</v>
+        <v>124.3529891967773</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>45262.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>130.3816070556641</v>
+        <v>134.5599975585938</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>45262.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>124.988525390625</v>
+        <v>121.3530883789062</v>
       </c>
     </row>
   </sheetData>
